--- a/09-septiembre/6-portal-cliente/NOVEDADES SETIEMBRE 2025.xlsx
+++ b/09-septiembre/6-portal-cliente/NOVEDADES SETIEMBRE 2025.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estudio\Documents\NOVEDADES EMPLEADOR\02 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283406BB-BD9E-4F7F-AD1E-20C081A769FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
+    <workbookView xWindow="-19440" yWindow="3555" windowWidth="18300" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -209,7 +210,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -308,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -318,10 +319,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -599,70 +599,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:D98"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -670,61 +670,61 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>52</v>
@@ -752,7 +752,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>53</v>
@@ -764,7 +764,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>54</v>
@@ -776,7 +776,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -788,7 +788,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -798,7 +798,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -814,7 +814,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -822,7 +822,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -830,17 +830,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -849,22 +849,22 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
@@ -872,23 +872,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>12</v>
       </c>
@@ -896,7 +896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -905,22 +905,22 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>28</v>
       </c>
@@ -928,22 +928,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -952,46 +952,46 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F57" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1011,22 +1011,22 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>28</v>
       </c>
@@ -1034,23 +1034,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" t="s">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>9</v>
       </c>
@@ -1070,7 +1070,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>17</v>
       </c>
@@ -1081,7 +1081,7 @@
       <c r="G77" s="4"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>41</v>
       </c>
@@ -1095,7 +1095,7 @@
       <c r="G78" s="4"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>18</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>43</v>
       </c>
@@ -1124,7 +1124,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>45</v>
       </c>
@@ -1134,7 +1134,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>44</v>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>59</v>
       </c>
@@ -1156,13 +1156,13 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -1172,7 +1172,7 @@
       <c r="G85" s="8"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>9</v>
       </c>
@@ -1180,17 +1180,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>28</v>
       </c>
@@ -1198,26 +1198,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="F93" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>19</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="G94" s="4"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -1253,22 +1253,22 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>28</v>
       </c>
@@ -1276,20 +1276,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>11</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -1305,9 +1305,6 @@
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
